--- a/TestData/WordPress_data.xlsx
+++ b/TestData/WordPress_data.xlsx
@@ -190,9 +190,6 @@
     <t>ProfilePictureInvalidExtensionFlag</t>
   </si>
   <si>
-    <t>\TestData\FAQ_OCS_050517_1017.pdf</t>
-  </si>
-  <si>
     <t>mayuR 324!@#$%^&amp;*()_+_[]';/.,/&amp;":';.,[],</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>Updating all the details to blank values.</t>
+  </si>
+  <si>
+    <t>\TestData\sample.pdf</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -905,7 +905,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -954,19 +954,19 @@
         <v>55</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>43</v>
@@ -992,16 +992,16 @@
         <v>50</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1012,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
@@ -1030,16 +1030,16 @@
         <v>50</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="J3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1050,34 +1050,34 @@
         <v>8</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1088,26 +1088,26 @@
         <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="2"/>
       <c r="H5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1118,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1130,13 +1130,13 @@
       <c r="J6" s="13"/>
       <c r="K6" s="2"/>
       <c r="L6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="N6" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1144,7 +1144,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1156,13 +1156,13 @@
       <c r="J7" s="13"/>
       <c r="K7" s="2"/>
       <c r="L7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="N7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
